--- a/Documentacion/Informes/Infantiles.xlsx
+++ b/Documentacion/Informes/Infantiles.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15315" windowHeight="8520"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15315" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="INFANTILES" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Infantiles x cantidad" sheetId="1" r:id="rId1"/>
+    <sheet name="Infantiles x monto" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="82">
   <si>
     <t>CONSUMIDOR FINAL</t>
   </si>
@@ -180,6 +180,87 @@
   </si>
   <si>
     <t>$</t>
+  </si>
+  <si>
+    <t>SANATORIO DEL NORTE S.R.L.</t>
+  </si>
+  <si>
+    <t>LEGUIZA JESUS</t>
+  </si>
+  <si>
+    <t>DAGARO, NATALIA ROSANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natidagaro@hotmail.com                  </t>
+  </si>
+  <si>
+    <t>HOLLENIKA, MARIA ANTONIA</t>
+  </si>
+  <si>
+    <t>VARGAS (B)  ARIEL SEBASTIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIELSEVA@HOTMAIL.COM                   </t>
+  </si>
+  <si>
+    <t>CANTEROS(B), ANA MARIA AURORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANAMARIACANTEROS@HOTMAIL.COM            </t>
+  </si>
+  <si>
+    <t>SLAVIN, GUILLERMO ANDRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03783 - 424330                          </t>
+  </si>
+  <si>
+    <t>TADINACK, VALERIA</t>
+  </si>
+  <si>
+    <t>CECOTTO CARINA ELISA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>LATTAR, NOELIA DEL ROSARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOELIALATTAR@HOTMAIL.COM                </t>
+  </si>
+  <si>
+    <t>COSTAGUTA MARIA SARA</t>
+  </si>
+  <si>
+    <t>CARDOZO, PATRICIA VIVIANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">430923/3794-225172                      </t>
+  </si>
+  <si>
+    <t>EEP N° 633 E. CHITTI DE BROWN</t>
+  </si>
+  <si>
+    <t>SANCHEZ, JOSE</t>
+  </si>
+  <si>
+    <t>GIGLI MARIA VICTORIA</t>
+  </si>
+  <si>
+    <t>ROLDAN RAQUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3794-347220                             </t>
+  </si>
+  <si>
+    <t>SANDOVAL (A), MARIA MAGDALENA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALENASAND@HOTMAIL.COM                  </t>
+  </si>
+  <si>
+    <t>WANDELOW (B), CLAUDIO ADOLFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLAUDIOWANDELOW@HOTMAIL.COM             </t>
   </si>
 </sst>
 </file>
@@ -716,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,12 +1438,642 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1222</v>
+      </c>
+      <c r="F2" s="6">
+        <v>78422.289999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1144468723</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>97</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2269.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3794267940</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3794780943</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1557.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1">
+        <v>15660374</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1315.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3794345015</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1291.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3794398169</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3795011941</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1202.4000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4437489</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>24</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3794355535</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3794261480</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6</v>
+      </c>
+      <c r="F22" s="2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4427437</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2">
+        <v>913.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>8</v>
+      </c>
+      <c r="F25" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3794312390</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4</v>
+      </c>
+      <c r="F30" s="2">
+        <v>797.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3794343405</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="4">
+        <v>790</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>